--- a/Engenharia de Software/Tabela de atores e respetivos casos de uso.xlsx
+++ b/Engenharia de Software/Tabela de atores e respetivos casos de uso.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\EngSof2-ProgInter\Engenharia de Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis_\Documents\GitHub\EngSof2-ProgInter\Engenharia de Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{F886D43F-21A7-4D0D-B5AE-7D6DBD6EC4ED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>Professor</t>
   </si>
   <si>
-    <t>Administrador</t>
-  </si>
-  <si>
     <t>Criar Inquérito</t>
   </si>
   <si>
@@ -107,12 +104,6 @@
     <t>Atores</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Cliente/Professor</t>
-  </si>
-  <si>
     <t>Criar Trilho</t>
   </si>
   <si>
@@ -138,12 +129,18 @@
   </si>
   <si>
     <t>Criar Guia</t>
+  </si>
+  <si>
+    <t>Turista</t>
+  </si>
+  <si>
+    <t>Turista/Professor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,11 +632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B6AE3E-AF82-48CF-A2B0-4DA21F3EC858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="A2:B34"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,10 +656,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -670,10 +667,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -681,10 +678,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -692,10 +689,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -703,10 +700,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -714,10 +711,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -725,10 +722,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -736,10 +733,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -747,10 +744,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -758,20 +755,20 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -779,10 +776,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -790,10 +787,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -801,10 +798,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -812,10 +809,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -823,10 +820,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -834,10 +831,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -845,10 +842,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -856,10 +853,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -870,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -879,10 +876,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -890,10 +887,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -901,10 +898,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -912,10 +909,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -923,10 +920,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -937,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -948,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -970,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -981,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -992,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1008,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">

--- a/Engenharia de Software/Tabela de atores e respetivos casos de uso.xlsx
+++ b/Engenharia de Software/Tabela de atores e respetivos casos de uso.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Professor</t>
   </si>
@@ -41,63 +41,12 @@
     <t>Eliminar Inquérito</t>
   </si>
   <si>
-    <t>Responder questionario</t>
-  </si>
-  <si>
-    <t>Eliminar questionario</t>
-  </si>
-  <si>
-    <t>Consultar questionario</t>
-  </si>
-  <si>
-    <t>Criar utente</t>
-  </si>
-  <si>
-    <t>Consultar utente</t>
-  </si>
-  <si>
-    <t>Alterar utente</t>
-  </si>
-  <si>
-    <t>Eliminar utente</t>
-  </si>
-  <si>
-    <t>Alterar questionario</t>
-  </si>
-  <si>
-    <t>Comparar Trilho</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>Consultar estabelecimentos para descansar</t>
-  </si>
-  <si>
-    <t>Visualizar condições metereologicas para o dia selecionado</t>
-  </si>
-  <si>
-    <t>selecionar o dia que deseja fazer o trilho</t>
-  </si>
-  <si>
     <t>Alterar dia que deseja fazer trilho</t>
   </si>
   <si>
-    <t>Selecionar guia</t>
-  </si>
-  <si>
-    <t>Alterar guia</t>
-  </si>
-  <si>
-    <t>Escolher guia</t>
-  </si>
-  <si>
-    <t>Mostrar contactos</t>
-  </si>
-  <si>
-    <t>Consultar testes trilho</t>
-  </si>
-  <si>
     <t>O que faz?</t>
   </si>
   <si>
@@ -135,6 +84,51 @@
   </si>
   <si>
     <t>Turista/Professor</t>
+  </si>
+  <si>
+    <t>Criar Turista</t>
+  </si>
+  <si>
+    <t>Consultar Turista</t>
+  </si>
+  <si>
+    <t>Alterar Turista</t>
+  </si>
+  <si>
+    <t>Eliminar Turista</t>
+  </si>
+  <si>
+    <t>Responder Questionario</t>
+  </si>
+  <si>
+    <t>Consultar Questionario</t>
+  </si>
+  <si>
+    <t>Visualizar Trilho Recomendado</t>
+  </si>
+  <si>
+    <t>Consultar Estabelecimentos para Descansar</t>
+  </si>
+  <si>
+    <t>Visualizar Condições Metereologicas para o dia selecionado</t>
+  </si>
+  <si>
+    <t>Selecionar o dia que deseja fazer o trilho</t>
+  </si>
+  <si>
+    <t>Selecionar Guia</t>
+  </si>
+  <si>
+    <t>Alterar Guia</t>
+  </si>
+  <si>
+    <t>Escolher Guia</t>
+  </si>
+  <si>
+    <t>Consultar Testes Trilho</t>
+  </si>
+  <si>
+    <t>Mostrar Contactos</t>
   </si>
 </sst>
 </file>
@@ -633,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,10 +650,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -711,10 +705,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -722,10 +716,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -733,21 +727,20 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -755,20 +748,21 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -776,10 +770,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -787,10 +781,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -798,10 +792,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -809,10 +803,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -820,10 +814,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -831,10 +825,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -842,7 +836,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>17</v>
@@ -850,13 +844,14 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -864,22 +859,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -887,10 +881,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -898,10 +892,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -909,10 +903,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -920,10 +914,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -934,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -945,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -956,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -967,46 +961,32 @@
         <v>0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -1018,15 +998,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="B37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
